--- a/entropy_csv/test_1_13_entropy.xlsx
+++ b/entropy_csv/test_1_13_entropy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\entropy_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42880453-A6F5-44C3-8023-EAFEB2EC970D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA02C06-E0AF-471E-B7E0-2A42F7BE85F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I106" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4663,7 +4663,7 @@
         <v>41</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>6.4811328747992603</v>
@@ -5092,7 +5092,7 @@
         <v>52</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>3.4450601934603098</v>
@@ -5201,7 +5201,7 @@
         <v>55</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>7.7136106311277004</v>
@@ -5726,7 +5726,7 @@
         <v>70</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>8.5462255336962691</v>
@@ -7056,7 +7056,7 @@
         <v>108</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>3.99847425805737</v>
@@ -7476,7 +7476,7 @@
         <v>120</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>6.1984001979025196</v>
@@ -7581,7 +7581,7 @@
         <v>123</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>8.9377844507981994</v>
@@ -14087,19 +14087,19 @@
     <row r="366" spans="1:17">
       <c r="H366">
         <f>COUNTIFS($B2:$B362,$B360,$F2:$F362,$F353)</f>
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I366">
         <f>COUNTIFS(B2:B362,B360,F2:F362,F356)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J366">
         <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F353)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K366">
         <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F356)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:17">
@@ -14108,26 +14108,26 @@
       </c>
       <c r="H367">
         <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"abnormal pipe image",$F$2:$F$362,1)</f>
-        <v>12.765302853295218</v>
+        <v>12.62531821953155</v>
       </c>
       <c r="I367">
         <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"abnormal pipe image",$F$2:$F$362,2)</f>
-        <v>5.5051413994801415</v>
+        <v>4.2416014638372159</v>
       </c>
       <c r="J367">
         <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"normal pipe image",$F$2:$F$362,1)</f>
-        <v>21.841698255808666</v>
+        <v>17.242538740221576</v>
       </c>
       <c r="K367">
         <f>AVERAGEIFS($H$2:$H362,$B$2:$B$362,"normal pipe image",$F$2:$F$362,2)</f>
-        <v>4.8583706628417183</v>
+        <v>4.872226647835654</v>
       </c>
       <c r="N367" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O367">
         <f>AVERAGE(H$367,I$367)</f>
-        <v>9.1352221263876796</v>
+        <v>8.4334598416843836</v>
       </c>
       <c r="P367">
         <f>AVERAGE(Q108:Q362)</f>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="O368">
         <f>AVERAGE(J$367,K$367)</f>
-        <v>13.350034459325192</v>
+        <v>11.057382694028615</v>
       </c>
       <c r="P368">
         <f>AVERAGE(Q2:Q107)</f>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="O371">
         <f>ROUNDDOWN(O370,1)+ROUNDDOWN(O368,1)</f>
-        <v>20</v>
+        <v>17.7</v>
       </c>
       <c r="P371">
         <f>ROUNDDOWN(P370*2,1)+ROUNDDOWN(P368,1)</f>
@@ -14200,23 +14200,23 @@
     <row r="372" spans="8:16">
       <c r="H372">
         <f>(H366+K366)/(H366+I366+J366+K366)</f>
-        <v>0.95567867036011078</v>
+        <v>0.96952908587257614</v>
       </c>
       <c r="I372">
         <f>H366/(H366+I366)</f>
-        <v>0.94901960784313721</v>
+        <v>0.97254901960784312</v>
       </c>
       <c r="J372">
         <f>H366/(H366+J366)</f>
-        <v>0.98775510204081629</v>
+        <v>0.98412698412698407</v>
       </c>
       <c r="K372">
         <f>K366/(I366+K366)</f>
-        <v>0.88793103448275867</v>
+        <v>0.93577981651376152</v>
       </c>
       <c r="L372">
         <f>(2*J372*I372)/(J372+I372)</f>
-        <v>0.96799999999999986</v>
+        <v>0.97830374753451665</v>
       </c>
     </row>
   </sheetData>
